--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -2,27 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDEE912-9CA3-4EF0-97D4-2F019A11B226}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D840C-3E5B-433B-BD11-C350D704796C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
-    <sheet name="queries" sheetId="5" r:id="rId4"/>
-    <sheet name="model" sheetId="4" r:id="rId5"/>
+    <sheet name="ronda_1" sheetId="7" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId4"/>
+    <sheet name="queries" sheetId="5" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
+    <sheet name="calculates" sheetId="8" r:id="rId7"/>
+    <sheet name="model" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$C$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="213">
   <si>
     <t>type</t>
   </si>
@@ -114,9 +117,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Escanea o codigo de barra</t>
   </si>
   <si>
@@ -174,9 +174,6 @@
     <t>local</t>
   </si>
   <si>
-    <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector') &amp;&amp; choice_item.zona===data('zona')</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -205,20 +202,6 @@
   </si>
   <si>
     <t>hideInContents</t>
-  </si>
-  <si>
-    <t>_.chain(context)
-.uniq(function(y){return y.local;})
-.map(function(place){
-    return {
-        data_value:place.local, 
-        region: place.region,
-        sector: place.sector,
-        zona: place.zona,
-        display:{title: {text: place.local} }
-    } 
-    })
-.value()</t>
   </si>
   <si>
     <t>csv</t>
@@ -319,9 +302,6 @@
     <t>if</t>
   </si>
   <si>
-    <t>selected(data('Data_ou_idade'),'1')</t>
-  </si>
-  <si>
     <t>else</t>
   </si>
   <si>
@@ -353,13 +333,381 @@
   </si>
   <si>
     <t>Inscrição</t>
+  </si>
+  <si>
+    <t>id_paciente</t>
+  </si>
+  <si>
+    <t>r1d1</t>
+  </si>
+  <si>
+    <t>r1d2</t>
+  </si>
+  <si>
+    <t>r1d3</t>
+  </si>
+  <si>
+    <t>tem_adverso</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>ef_adveso_r1</t>
+  </si>
+  <si>
+    <t>esp_ef_adverso_r1</t>
+  </si>
+  <si>
+    <t>r2d1</t>
+  </si>
+  <si>
+    <t>r2d2</t>
+  </si>
+  <si>
+    <t>r2d3</t>
+  </si>
+  <si>
+    <t>tem_adverso_r2</t>
+  </si>
+  <si>
+    <t>ef_adveso_r2</t>
+  </si>
+  <si>
+    <t>esp_ef_adverso_r2</t>
+  </si>
+  <si>
+    <t>r3d1</t>
+  </si>
+  <si>
+    <t>r3d2</t>
+  </si>
+  <si>
+    <t>r3d3</t>
+  </si>
+  <si>
+    <t>tem_adverso_r3</t>
+  </si>
+  <si>
+    <t>ef_adveso_r3</t>
+  </si>
+  <si>
+    <t>esp_ef_adverso_r3</t>
+  </si>
+  <si>
+    <t>r4d1</t>
+  </si>
+  <si>
+    <t>r4d2</t>
+  </si>
+  <si>
+    <t>r4d3</t>
+  </si>
+  <si>
+    <t>tem_adverso_r4</t>
+  </si>
+  <si>
+    <t>ef_adveso_r4</t>
+  </si>
+  <si>
+    <t>esp_ef_adverso_r4</t>
+  </si>
+  <si>
+    <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
+  </si>
+  <si>
+    <t>_.chain(context)
+.uniq(function(y){return y.local;})
+.map(function(place){
+    return {
+        data_value:place.local, 
+        region: place.region,
+        sector: place.sector,
+               display:{title: {text: place.local} }
+    } 
+    })
+.value()</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Nº de Agregado Familiar</t>
+  </si>
+  <si>
+    <t>nome_casa</t>
+  </si>
+  <si>
+    <t>Nome de Casa</t>
+  </si>
+  <si>
+    <t>data('Data_ou_idade')=='1'</t>
+  </si>
+  <si>
+    <t>letra_sticker</t>
+  </si>
+  <si>
+    <t>numero_sticker</t>
+  </si>
+  <si>
+    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
+  </si>
+  <si>
+    <t>Números de código</t>
+  </si>
+  <si>
+    <t>Letras de códigos</t>
+  </si>
+  <si>
+    <t>escrever os números</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>codigo_sticker</t>
+  </si>
+  <si>
+    <t>data('codigo_stiker')&lt;1</t>
+  </si>
+  <si>
+    <t>codigo_manual</t>
+  </si>
+  <si>
+    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>string-length(data('sticker'))</t>
+  </si>
+  <si>
+    <t>if (string-length(data('sticker'))&gt;1,data('codigo_sticker'),data('codigo_manual'))</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>goto ending</t>
+  </si>
+  <si>
+    <t>ineligible</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>refuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>if // ref_reason</t>
+  </si>
+  <si>
+    <t>end if // ref_reason</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>survey_complete</t>
+  </si>
+  <si>
+    <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, você é inelegível para fazer parte do estudo. Isso de modo algum afeta o cuidado que você receberá aqui nesta clínica. Posso responder a quaisquer perguntas que você possa ter?</t>
+  </si>
+  <si>
+    <t>Eu entendo que você não quer participar deste estudo. Você poderia me dizer porque você não gostaria de participar? Marque todos que se aplicam:</t>
+  </si>
+  <si>
+    <t>Especifica</t>
+  </si>
+  <si>
+    <t>Diga: Obrigado por me informar porque você não quer participar. É importante que saibamos por que as mulheres podem se sentir assim. Isso de modo algum afetará os cuidados que você, seus filhos ou seu parceiro receberão na clínica.</t>
+  </si>
+  <si>
+    <t>A exibição agora está completa, por favor, vá para a próxima página para finalizar suas respostas.</t>
+  </si>
+  <si>
+    <t>idade_em_dia</t>
+  </si>
+  <si>
+    <t>if(data('Data_ou_idade')=='1'),(now().getTime()-new Date(data('dn')).getTime())/1000/60/60/24), ((data('ano')*365)+(data('mes')*30)))</t>
+  </si>
+  <si>
+    <t>consentimento_r1</t>
+  </si>
+  <si>
+    <t>Os pais e a criança aceitaram a tomar o medicamento</t>
+  </si>
+  <si>
+    <t>if //consentimento</t>
+  </si>
+  <si>
+    <t>data('consentimento')=='2'</t>
+  </si>
+  <si>
+    <t>goto refuse</t>
+  </si>
+  <si>
+    <t>1º dia - ASC</t>
+  </si>
+  <si>
+    <t>2º dia - Mãe</t>
+  </si>
+  <si>
+    <t>3º dia - Mãe</t>
+  </si>
+  <si>
+    <t>tem_adverso_r1</t>
+  </si>
+  <si>
+    <t>Tem algun efeito adverso</t>
+  </si>
+  <si>
+    <t>data('tem_adverso_r1')=='1'</t>
+  </si>
+  <si>
+    <t>efeito_adverso</t>
+  </si>
+  <si>
+    <t>Efeitos Adverso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>selected(data('ef_adverso_r1'),'7')</t>
+  </si>
+  <si>
+    <t>Especica o efeito adverso</t>
+  </si>
+  <si>
+    <t>goto tranferencia</t>
+  </si>
+  <si>
+    <t>selected(data('ef_adverso_r1'),'5') || selected(data('ef_adverso_r2'),'6')</t>
+  </si>
+  <si>
+    <t>dx_tto_r1</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICO E TRATAMENTO DO PALUDISMO: A QPS é integrado com o diagnóstico e tratamento do paludismo a nível da comunidade pelo ASC. Os resultados serão relatados pelos ASC em seus formulários de relatórios mensais. Qualquer criança que tenha febre com um TDR negativo deve ser transferida para o centro de saúde. 
+Indique se Sim nas células das colunas correspondentes relacionadas a suspeita do paludismo, teste e tratamento com ACT.</t>
+  </si>
+  <si>
+    <t>febre_r1</t>
+  </si>
+  <si>
+    <t>Febre ou história de febre</t>
+  </si>
+  <si>
+    <t>data('febre_r1')=='1'</t>
+  </si>
+  <si>
+    <t>TDR_r1</t>
+  </si>
+  <si>
+    <t>TDR Realizado</t>
+  </si>
+  <si>
+    <t>data('TDR_r1')=='2')</t>
+  </si>
+  <si>
+    <t>TDR_positivo_r1</t>
+  </si>
+  <si>
+    <t>TDR +</t>
+  </si>
+  <si>
+    <t>data('TDR_positivo_r1')=='2'</t>
+  </si>
+  <si>
+    <t>tto_ACT_r1</t>
+  </si>
+  <si>
+    <t>Tratamenco com ACT</t>
+  </si>
+  <si>
+    <t>data('tto_ACT')=='2'</t>
+  </si>
+  <si>
+    <t>end if // consentimento</t>
+  </si>
+  <si>
+    <t>transferencia</t>
+  </si>
+  <si>
+    <t>tranferencia_r1</t>
+  </si>
+  <si>
+    <t>A criança foi tranferido</t>
+  </si>
+  <si>
+    <t>data('transferencia_r1')=='1'</t>
+  </si>
+  <si>
+    <t>motivo_r1</t>
+  </si>
+  <si>
+    <t>inelegivel_r1</t>
+  </si>
+  <si>
+    <t>razao</t>
+  </si>
+  <si>
+    <t>razao_r1</t>
+  </si>
+  <si>
+    <t>selected(data('razao_r1'),'4')</t>
+  </si>
+  <si>
+    <t>esp_razao_r1</t>
+  </si>
+  <si>
+    <t>refusal_statement_r1</t>
+  </si>
+  <si>
+    <t>exclusao</t>
+  </si>
+  <si>
+    <t>selected(data('ef_adverso_r1'),'7') || selected(data('ef_adverso_r1'),'5') || selected(data('ef_adverso_r2'),'6')</t>
+  </si>
+  <si>
+    <t>exclusao_r1</t>
+  </si>
+  <si>
+    <t>Agradecer pelo tempo, e explicar que a criança será excluida no estudo e não votará a receber qps este ano</t>
+  </si>
+  <si>
+    <t>if (true) alert("je") else alert("ne");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,16 +758,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -434,6 +803,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -453,7 +846,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -514,14 +907,51 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -944,923 +1374,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V110"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD28"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="63" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="7"/>
-    <col min="11" max="16384" width="10.75" style="2"/>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="63" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="7"/>
+    <col min="12" max="12" width="10.75" style="2"/>
+    <col min="13" max="13" width="17" style="2" customWidth="1"/>
+    <col min="14" max="14" width="59.9375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
-      </c>
-      <c r="S1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="9"/>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D2" s="9"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B3" s="3"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="C14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C17" s="12"/>
+      <c r="D17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="F17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C28" s="12"/>
+      <c r="D28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C29" s="12"/>
+      <c r="D29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C30" s="12"/>
+      <c r="D30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C34" s="12"/>
+      <c r="D34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C35" s="12"/>
+      <c r="D35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C36" s="12"/>
+      <c r="D36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
+      <c r="G36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C37" s="12"/>
+      <c r="D37" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
-      <c r="D38" s="13"/>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="C38" s="12"/>
       <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
-      <c r="D49" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C49" s="12"/>
       <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="D50" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C50" s="13"/>
       <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="D51" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C51" s="12"/>
       <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="D52" s="14"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C52" s="13"/>
       <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="D53" s="14"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C53" s="12"/>
       <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="D54" s="14"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C54" s="12"/>
       <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="D55" s="13"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C55" s="12"/>
       <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
-      <c r="D56" s="14"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C56" s="12"/>
       <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="D57" s="14"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C57" s="12"/>
       <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="D58" s="14"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C58" s="12"/>
       <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="D59" s="14"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C59" s="12"/>
       <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="D60" s="14"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C60" s="12"/>
       <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="12"/>
-      <c r="D64" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C61" s="12"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C62" s="12"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C64" s="12"/>
       <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="24"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C65" s="12"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C66" s="12"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C67" s="12"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C68" s="12"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C69" s="12"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C70" s="12"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C72" s="12"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="C73" s="12"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="14"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B75" s="14"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="18"/>
       <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B76" s="14"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="14"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B77" s="14"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="18"/>
       <c r="G77" s="14"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B78" s="14"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="14"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B79" s="14"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B80" s="14"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B81" s="14"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="14"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="12"/>
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C93" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D97" s="12"/>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D98" s="12"/>
-      <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D101" s="12"/>
-      <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D103" s="12"/>
-      <c r="E103" s="13"/>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D104" s="12"/>
-      <c r="E104" s="13"/>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D105" s="12"/>
-      <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D107" s="12"/>
-      <c r="E107" s="13"/>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D108" s="12"/>
-      <c r="E108" s="13"/>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C109" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D109" s="12"/>
-      <c r="E109" s="13"/>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D110" s="12"/>
-      <c r="E110" s="13"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1871,13 +2420,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1885,7 +2435,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1896,612 +2446,612 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C30" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -2517,21 +3067,949 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D5DD61-5A91-4E0B-9F32-8B55156AEF4A}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:W114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13.0625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="63" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="7"/>
+    <col min="12" max="13" width="10.75" style="2"/>
+    <col min="14" max="14" width="40.875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:23" s="33" customFormat="1" ht="31.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:23" s="33" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="33" customFormat="1" ht="31.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B16" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B27" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B30" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B33" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="110.25" x14ac:dyDescent="0.5">
+      <c r="D34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B43" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B47" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B49" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B51" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B53" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B59" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B62" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="63" x14ac:dyDescent="0.5">
+      <c r="A63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B64" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="D67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B68" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="D69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B70" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B73" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K74" s="6"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="78" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E85" s="25"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E87" s="25"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E89" s="25"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E92" s="25"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E94" s="25"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E95" s="25"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="25"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="25"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2542,31 +4020,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019070600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2019072400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2584,15 +4062,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -2600,61 +4079,61 @@
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2662,350 +4141,564 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B66"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FCBCF-A5C9-46E1-9441-C92FF7C3D2D5}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="21"/>
-    <col min="2" max="2" width="40.375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="17.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -5,22 +5,21 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\inscricao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D840C-3E5B-433B-BD11-C350D704796C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA7D2F-477B-4283-A06B-7726F48A5A9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="ronda_1" sheetId="7" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" r:id="rId4"/>
-    <sheet name="queries" sheetId="5" r:id="rId5"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
-    <sheet name="calculates" sheetId="8" r:id="rId7"/>
-    <sheet name="model" sheetId="4" r:id="rId8"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="queries" sheetId="5" r:id="rId4"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
+    <sheet name="calculates" sheetId="8" r:id="rId6"/>
+    <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$D$1:$K$1</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="171">
   <si>
     <t>type</t>
   </si>
@@ -142,9 +141,6 @@
   </si>
   <si>
     <t>mae</t>
-  </si>
-  <si>
-    <t>Nome da Mãe</t>
   </si>
   <si>
     <t>region_csv</t>
@@ -462,252 +458,128 @@
     <t>data('Data_ou_idade')=='1'</t>
   </si>
   <si>
-    <t>letra_sticker</t>
-  </si>
-  <si>
     <t>numero_sticker</t>
   </si>
   <si>
-    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
-  </si>
-  <si>
-    <t>Números de código</t>
-  </si>
-  <si>
-    <t>Letras de códigos</t>
-  </si>
-  <si>
-    <t>escrever os números</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>codigo_sticker</t>
-  </si>
-  <si>
-    <t>data('codigo_stiker')&lt;1</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>sticker</t>
-  </si>
-  <si>
-    <t>string-length(data('sticker'))</t>
-  </si>
-  <si>
-    <t>if (string-length(data('sticker'))&gt;1,data('codigo_sticker'),data('codigo_manual'))</t>
-  </si>
-  <si>
     <t>branch_label</t>
   </si>
   <si>
-    <t>goto ending</t>
-  </si>
-  <si>
-    <t>ineligible</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>refuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple </t>
-  </si>
-  <si>
-    <t>if // ref_reason</t>
-  </si>
-  <si>
-    <t>end if // ref_reason</t>
-  </si>
-  <si>
-    <t>ending</t>
-  </si>
-  <si>
-    <t>survey_complete</t>
-  </si>
-  <si>
-    <t>Obrigado pelo seu tempo em responder a estas perguntas. Com base em algumas das respostas que você deu, você é inelegível para fazer parte do estudo. Isso de modo algum afeta o cuidado que você receberá aqui nesta clínica. Posso responder a quaisquer perguntas que você possa ter?</t>
-  </si>
-  <si>
-    <t>Eu entendo que você não quer participar deste estudo. Você poderia me dizer porque você não gostaria de participar? Marque todos que se aplicam:</t>
-  </si>
-  <si>
-    <t>Especifica</t>
-  </si>
-  <si>
-    <t>Diga: Obrigado por me informar porque você não quer participar. É importante que saibamos por que as mulheres podem se sentir assim. Isso de modo algum afetará os cuidados que você, seus filhos ou seu parceiro receberão na clínica.</t>
-  </si>
-  <si>
-    <t>A exibição agora está completa, por favor, vá para a próxima página para finalizar suas respostas.</t>
-  </si>
-  <si>
-    <t>idade_em_dia</t>
-  </si>
-  <si>
-    <t>if(data('Data_ou_idade')=='1'),(now().getTime()-new Date(data('dn')).getTime())/1000/60/60/24), ((data('ano')*365)+(data('mes')*30)))</t>
-  </si>
-  <si>
-    <t>consentimento_r1</t>
-  </si>
-  <si>
-    <t>Os pais e a criança aceitaram a tomar o medicamento</t>
-  </si>
-  <si>
-    <t>if //consentimento</t>
-  </si>
-  <si>
-    <t>data('consentimento')=='2'</t>
-  </si>
-  <si>
-    <t>goto refuse</t>
-  </si>
-  <si>
-    <t>1º dia - ASC</t>
-  </si>
-  <si>
-    <t>2º dia - Mãe</t>
-  </si>
-  <si>
-    <t>3º dia - Mãe</t>
-  </si>
-  <si>
-    <t>tem_adverso_r1</t>
-  </si>
-  <si>
-    <t>Tem algun efeito adverso</t>
-  </si>
-  <si>
-    <t>data('tem_adverso_r1')=='1'</t>
-  </si>
-  <si>
     <t>efeito_adverso</t>
   </si>
   <si>
-    <t>Efeitos Adverso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>selected(data('ef_adverso_r1'),'7')</t>
-  </si>
-  <si>
-    <t>Especica o efeito adverso</t>
-  </si>
-  <si>
-    <t>goto tranferencia</t>
-  </si>
-  <si>
-    <t>selected(data('ef_adverso_r1'),'5') || selected(data('ef_adverso_r2'),'6')</t>
-  </si>
-  <si>
-    <t>dx_tto_r1</t>
-  </si>
-  <si>
-    <t>DIAGNÓSTICO E TRATAMENTO DO PALUDISMO: A QPS é integrado com o diagnóstico e tratamento do paludismo a nível da comunidade pelo ASC. Os resultados serão relatados pelos ASC em seus formulários de relatórios mensais. Qualquer criança que tenha febre com um TDR negativo deve ser transferida para o centro de saúde. 
-Indique se Sim nas células das colunas correspondentes relacionadas a suspeita do paludismo, teste e tratamento com ACT.</t>
-  </si>
-  <si>
-    <t>febre_r1</t>
-  </si>
-  <si>
-    <t>Febre ou história de febre</t>
-  </si>
-  <si>
-    <t>data('febre_r1')=='1'</t>
-  </si>
-  <si>
-    <t>TDR_r1</t>
-  </si>
-  <si>
-    <t>TDR Realizado</t>
-  </si>
-  <si>
-    <t>data('TDR_r1')=='2')</t>
-  </si>
-  <si>
-    <t>TDR_positivo_r1</t>
-  </si>
-  <si>
-    <t>TDR +</t>
-  </si>
-  <si>
-    <t>data('TDR_positivo_r1')=='2'</t>
-  </si>
-  <si>
-    <t>tto_ACT_r1</t>
-  </si>
-  <si>
-    <t>Tratamenco com ACT</t>
-  </si>
-  <si>
-    <t>data('tto_ACT')=='2'</t>
-  </si>
-  <si>
-    <t>end if // consentimento</t>
-  </si>
-  <si>
     <t>transferencia</t>
   </si>
   <si>
-    <t>tranferencia_r1</t>
-  </si>
-  <si>
-    <t>A criança foi tranferido</t>
-  </si>
-  <si>
-    <t>data('transferencia_r1')=='1'</t>
-  </si>
-  <si>
-    <t>motivo_r1</t>
-  </si>
-  <si>
-    <t>inelegivel_r1</t>
-  </si>
-  <si>
     <t>razao</t>
   </si>
   <si>
-    <t>razao_r1</t>
-  </si>
-  <si>
-    <t>selected(data('razao_r1'),'4')</t>
-  </si>
-  <si>
-    <t>esp_razao_r1</t>
-  </si>
-  <si>
-    <t>refusal_statement_r1</t>
-  </si>
-  <si>
-    <t>exclusao</t>
-  </si>
-  <si>
-    <t>selected(data('ef_adverso_r1'),'7') || selected(data('ef_adverso_r1'),'5') || selected(data('ef_adverso_r2'),'6')</t>
-  </si>
-  <si>
-    <t>exclusao_r1</t>
-  </si>
-  <si>
-    <t>Agradecer pelo tempo, e explicar que a criança será excluida no estudo e não votará a receber qps este ano</t>
-  </si>
-  <si>
-    <t>if (true) alert("je") else alert("ne");</t>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
+    <t>Vômitos</t>
+  </si>
+  <si>
+    <t>Vômitos repetidos</t>
+  </si>
+  <si>
+    <t>Dor de barriga intensa</t>
+  </si>
+  <si>
+    <t>Diarréia (&gt;= 7)</t>
+  </si>
+  <si>
+    <t>Convulsões</t>
+  </si>
+  <si>
+    <t>Erupção cutânea</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Falta de TDR</t>
+  </si>
+  <si>
+    <t>Efeito adversos</t>
+  </si>
+  <si>
+    <t>Febre com TDR negativo</t>
+  </si>
+  <si>
+    <t>Falta de ACT</t>
+  </si>
+  <si>
+    <t>outros</t>
+  </si>
+  <si>
+    <t>Esqueceu-se</t>
+  </si>
+  <si>
+    <t>A criança teve reação</t>
+  </si>
+  <si>
+    <t>Não queriam que a criança tomasse</t>
+  </si>
+  <si>
+    <t>outra razão</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>ronda</t>
+  </si>
+  <si>
+    <t>id_paciente=?</t>
+  </si>
+  <si>
+    <t>[data('id_paciente')]</t>
+  </si>
+  <si>
+    <t>{id_paciente: data('id_paciente')}</t>
+  </si>
+  <si>
+    <t>abrir_ronda</t>
+  </si>
+  <si>
+    <t>Rondas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -773,22 +645,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -814,21 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -846,7 +711,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -893,9 +758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -914,46 +776,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1375,13 +1214,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W119"/>
+  <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1405,7 +1244,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1425,8 +1264,8 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>44</v>
+      <c r="H1" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -1441,31 +1280,31 @@
         <v>3</v>
       </c>
       <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -1475,6 +1314,9 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="13"/>
@@ -1485,156 +1327,66 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>145</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>141</v>
-      </c>
+      <c r="C5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2" t="b">
-        <v>1</v>
+      <c r="M6" s="13"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B7" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B11" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1646,13 +1398,16 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
     </row>
@@ -1660,14 +1415,14 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1689,104 +1444,99 @@
         <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="C16" s="12"/>
       <c r="D16" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C24" s="12"/>
@@ -1795,203 +1545,240 @@
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C28" s="12"/>
-      <c r="D28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B29" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C30" s="12"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" t="s">
-        <v>120</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H30"/>
       <c r="I30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C33" s="13"/>
+      <c r="D32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C33" s="12"/>
       <c r="D33" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B34" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.5">
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C36" s="12"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C36" s="13"/>
       <c r="D36" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C37" s="12"/>
       <c r="D37" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C38" s="12"/>
+      <c r="D38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C39" s="12"/>
+      <c r="D39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C40" s="12"/>
+      <c r="D40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.5">
-      <c r="C38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A41"/>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A42"/>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44"/>
+      <c r="D44" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C53" s="12"/>
@@ -1999,7 +1786,7 @@
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C54" s="12"/>
+      <c r="C54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
@@ -2009,7 +1796,7 @@
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C56" s="12"/>
+      <c r="C56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
@@ -2035,17 +1822,17 @@
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C61" s="12"/>
-      <c r="E61" s="14"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C62" s="12"/>
-      <c r="E62" s="14"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C63" s="13"/>
-      <c r="E63" s="14"/>
+      <c r="C63" s="12"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.5">
@@ -2064,13 +1851,13 @@
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C67" s="12"/>
+      <c r="C67" s="13"/>
       <c r="E67" s="14"/>
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C68" s="12"/>
-      <c r="E68" s="14"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.5">
@@ -2084,194 +1871,194 @@
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C71" s="13"/>
+      <c r="C71" s="12"/>
       <c r="E71" s="14"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C72" s="12"/>
-      <c r="E72" s="13"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C73" s="12"/>
-      <c r="E73" s="13"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="17"/>
+      <c r="C74" s="12"/>
       <c r="E74" s="14"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="17"/>
+      <c r="C75" s="13"/>
       <c r="E75" s="14"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="K75" s="6"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="K76" s="6"/>
+      <c r="C76" s="12"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
+      <c r="C77" s="12"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="17"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="14"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="17"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="18"/>
+      <c r="F79" s="17"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
+      <c r="K79" s="6"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="17"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="18"/>
+      <c r="F80" s="17"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
+      <c r="K80" s="6"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="17"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="18"/>
+      <c r="F81" s="17"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="14"/>
       <c r="H82" s="14"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="14"/>
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="17"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="14"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="17"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="17"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="14"/>
-      <c r="F85" s="18"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="14"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="29"/>
       <c r="H86" s="14"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="14"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="29"/>
       <c r="H87" s="14"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="17"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="14"/>
-      <c r="F88" s="18"/>
+      <c r="F88" s="17"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="17"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="14"/>
-      <c r="F89" s="18"/>
+      <c r="F89" s="17"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="17"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="14"/>
-      <c r="F90" s="18"/>
+      <c r="F90" s="17"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D95" s="12"/>
@@ -2398,15 +2185,35 @@
       <c r="E119" s="12"/>
       <c r="F119" s="13"/>
     </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="13"/>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="13"/>
+    </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2424,7 +2231,7 @@
   <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2454,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -2465,12 +2272,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2481,13 +2288,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -2496,24 +2303,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -2521,22 +2328,81 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
@@ -2547,21 +2413,106 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="C30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
@@ -3067,939 +3018,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D5DD61-5A91-4E0B-9F32-8B55156AEF4A}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W114"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="13.0625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="63" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="7"/>
-    <col min="12" max="13" width="10.75" style="2"/>
-    <col min="14" max="14" width="40.875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:23" s="33" customFormat="1" ht="31.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:23" s="33" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="33" customFormat="1" ht="31.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="D12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B16" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B25" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B27" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B28" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B30" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B32" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="110.25" x14ac:dyDescent="0.5">
-      <c r="D34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B43" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B47" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B48" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B50" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B51" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B52" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B53" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B59" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B60" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B62" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="63" x14ac:dyDescent="0.5">
-      <c r="A63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B64" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A65" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B66" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="D67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B68" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="63" x14ac:dyDescent="0.5">
-      <c r="D69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B70" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="B73" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="K74" s="6"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="78" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A78" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E85" s="25"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E86" s="25"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E87" s="25"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E89" s="25"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E90" s="25"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E91" s="25"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E92" s="25"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E93" s="25"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E94" s="25"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.5">
-      <c r="E95" s="25"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="25"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="25"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="25"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G106:G107"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4025,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -4041,7 +3065,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -4062,92 +3086,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="15.0625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="10.8125" customWidth="1"/>
+    <col min="6" max="6" width="14.5625" customWidth="1"/>
+    <col min="7" max="7" width="25.1875" customWidth="1"/>
+    <col min="10" max="10" width="22.0625" customWidth="1"/>
+    <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="K1" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="173.25" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FCBCF-A5C9-46E1-9441-C92FF7C3D2D5}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4157,32 +3235,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4190,12 +3282,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4206,56 +3298,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" t="s">
-        <v>163</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4265,10 +3333,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4277,15 +3345,15 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>90</v>
+      <c r="A3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -4309,12 +3377,12 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="24" t="s">
-        <v>122</v>
+      <c r="A7" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -4345,27 +3413,27 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
@@ -4373,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -4381,7 +3449,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -4389,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -4397,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -4405,35 +3473,35 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -4441,15 +3509,15 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -4457,35 +3525,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -4493,15 +3561,15 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
@@ -4509,39 +3577,39 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
@@ -4549,15 +3617,15 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
@@ -4565,39 +3633,39 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
@@ -4605,15 +3673,15 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
@@ -4621,84 +3689,92 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEA7D2F-477B-4283-A06B-7726F48A5A9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D845FC83-D0EE-43A4-98F1-77CDF6D99442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -355,224 +355,191 @@
     <t>esp_ef_adverso_r1</t>
   </si>
   <si>
-    <t>r2d1</t>
-  </si>
-  <si>
-    <t>r2d2</t>
-  </si>
-  <si>
-    <t>r2d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r2</t>
-  </si>
-  <si>
-    <t>ef_adveso_r2</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r2</t>
-  </si>
-  <si>
-    <t>r3d1</t>
-  </si>
-  <si>
-    <t>r3d2</t>
-  </si>
-  <si>
-    <t>r3d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r3</t>
-  </si>
-  <si>
-    <t>ef_adveso_r3</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r3</t>
-  </si>
-  <si>
-    <t>r4d1</t>
-  </si>
-  <si>
-    <t>r4d2</t>
-  </si>
-  <si>
-    <t>r4d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r4</t>
-  </si>
-  <si>
-    <t>ef_adveso_r4</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r4</t>
-  </si>
-  <si>
     <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
   </si>
   <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Nº de Agregado Familiar</t>
+  </si>
+  <si>
+    <t>nome_casa</t>
+  </si>
+  <si>
+    <t>Nome de Casa</t>
+  </si>
+  <si>
+    <t>data('Data_ou_idade')=='1'</t>
+  </si>
+  <si>
+    <t>numero_sticker</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>efeito_adverso</t>
+  </si>
+  <si>
+    <t>transferencia</t>
+  </si>
+  <si>
+    <t>razao</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
+    <t>Vômitos</t>
+  </si>
+  <si>
+    <t>Vômitos repetidos</t>
+  </si>
+  <si>
+    <t>Dor de barriga intensa</t>
+  </si>
+  <si>
+    <t>Diarréia (&gt;= 7)</t>
+  </si>
+  <si>
+    <t>Convulsões</t>
+  </si>
+  <si>
+    <t>Erupção cutânea</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Falta de TDR</t>
+  </si>
+  <si>
+    <t>Efeito adversos</t>
+  </si>
+  <si>
+    <t>Febre com TDR negativo</t>
+  </si>
+  <si>
+    <t>Falta de ACT</t>
+  </si>
+  <si>
+    <t>outros</t>
+  </si>
+  <si>
+    <t>Esqueceu-se</t>
+  </si>
+  <si>
+    <t>A criança teve reação</t>
+  </si>
+  <si>
+    <t>Não queriam que a criança tomasse</t>
+  </si>
+  <si>
+    <t>outra razão</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>ronda</t>
+  </si>
+  <si>
+    <t>id_paciente=?</t>
+  </si>
+  <si>
+    <t>[data('id_paciente')]</t>
+  </si>
+  <si>
+    <t>{id_paciente: data('id_paciente')}</t>
+  </si>
+  <si>
+    <t>abrir_ronda</t>
+  </si>
+  <si>
+    <t>Rondas</t>
+  </si>
+  <si>
     <t>_.chain(context)
-.uniq(function(y){return y.local;})
+.uniq(function(y){return y.tabanca;})
 .map(function(place){
     return {
-        data_value:place.local, 
+        data_value:place.tabanca, 
         region: place.region,
         sector: place.sector,
-               display:{title: {text: place.local} }
+               display:{title: {text: place.tabanca} }
     } 
     })
 .value()</t>
   </si>
   <si>
-    <t>custom_date</t>
-  </si>
-  <si>
-    <t>prompt_type_name</t>
-  </si>
-  <si>
-    <t>elementType</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Makes the date widget DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Nº de Agregado Familiar</t>
-  </si>
-  <si>
-    <t>nome_casa</t>
-  </si>
-  <si>
-    <t>Nome de Casa</t>
-  </si>
-  <si>
-    <t>data('Data_ou_idade')=='1'</t>
-  </si>
-  <si>
-    <t>numero_sticker</t>
-  </si>
-  <si>
-    <t>branch_label</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>efeito_adverso</t>
-  </si>
-  <si>
-    <t>transferencia</t>
-  </si>
-  <si>
-    <t>razao</t>
-  </si>
-  <si>
-    <t>adate</t>
-  </si>
-  <si>
-    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
-  </si>
-  <si>
-    <t>Vômitos</t>
-  </si>
-  <si>
-    <t>Vômitos repetidos</t>
-  </si>
-  <si>
-    <t>Dor de barriga intensa</t>
-  </si>
-  <si>
-    <t>Diarréia (&gt;= 7)</t>
-  </si>
-  <si>
-    <t>Convulsões</t>
-  </si>
-  <si>
-    <t>Erupção cutânea</t>
-  </si>
-  <si>
-    <t>Outros</t>
-  </si>
-  <si>
-    <t>Falta de TDR</t>
-  </si>
-  <si>
-    <t>Efeito adversos</t>
-  </si>
-  <si>
-    <t>Febre com TDR negativo</t>
-  </si>
-  <si>
-    <t>Falta de ACT</t>
-  </si>
-  <si>
-    <t>outros</t>
-  </si>
-  <si>
-    <t>Esqueceu-se</t>
-  </si>
-  <si>
-    <t>A criança teve reação</t>
-  </si>
-  <si>
-    <t>Não queriam que a criança tomasse</t>
-  </si>
-  <si>
-    <t>outra razão</t>
-  </si>
-  <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>ronda</t>
-  </si>
-  <si>
-    <t>id_paciente=?</t>
-  </si>
-  <si>
-    <t>[data('id_paciente')]</t>
-  </si>
-  <si>
-    <t>{id_paciente: data('id_paciente')}</t>
-  </si>
-  <si>
-    <t>abrir_ronda</t>
-  </si>
-  <si>
-    <t>Rondas</t>
+    <t>letra_sticker</t>
+  </si>
+  <si>
+    <t>Letras de códigos</t>
+  </si>
+  <si>
+    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
+  </si>
+  <si>
+    <t>Números de código</t>
+  </si>
+  <si>
+    <t>escrever os números</t>
+  </si>
+  <si>
+    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
+  </si>
+  <si>
+    <t>codigo_manual</t>
   </si>
 </sst>
 </file>
@@ -711,7 +678,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -785,14 +752,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1214,13 +1184,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W123"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1244,7 +1214,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1354,38 +1324,54 @@
       <c r="J4" s="3"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="27"/>
+    <row r="5" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
+      <c r="B9" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="11"/>
@@ -1393,217 +1379,204 @@
       <c r="F11" s="11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="11" t="s">
-        <v>138</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="C14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
+      <c r="C20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C29" s="12"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C31" s="12"/>
@@ -1611,17 +1584,15 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H31"/>
       <c r="I31"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.5">
@@ -1630,165 +1601,182 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C34" s="12"/>
+      <c r="D34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F34" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>60</v>
       </c>
-      <c r="H32" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C33" s="12"/>
-      <c r="D33" s="13" t="s">
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C35" s="12"/>
+      <c r="D35" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B34" s="2" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C37" s="12"/>
-      <c r="D37" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C38" s="12"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C39" s="12"/>
       <c r="D39" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C40" s="12"/>
       <c r="D40" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C41" s="12"/>
+      <c r="D41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C42" s="12"/>
+      <c r="D42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A41"/>
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43"/>
+      <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A42"/>
-      <c r="B42" s="2" t="s">
+      <c r="C43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A44"/>
+      <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D43" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A44"/>
-      <c r="D44" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B45" s="2" t="s">
+      <c r="C44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A46"/>
+      <c r="D46" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C55" s="12"/>
@@ -1806,7 +1794,7 @@
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C58" s="12"/>
+      <c r="C58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
@@ -1840,91 +1828,82 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C65" s="12"/>
-      <c r="E65" s="14"/>
+      <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C66" s="12"/>
-      <c r="E66" s="14"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C67" s="13"/>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C67" s="12"/>
       <c r="E67" s="14"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C68" s="12"/>
-      <c r="E68" s="13"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C69" s="12"/>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C69" s="13"/>
       <c r="E69" s="14"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C70" s="12"/>
-      <c r="E70" s="14"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C71" s="12"/>
       <c r="E71" s="14"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C72" s="12"/>
       <c r="E72" s="14"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C73" s="12"/>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C74" s="12"/>
       <c r="E74" s="14"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C75" s="13"/>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C75" s="12"/>
       <c r="E75" s="14"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C76" s="12"/>
-      <c r="E76" s="13"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C77" s="12"/>
-      <c r="E77" s="13"/>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C77" s="13"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="C79" s="12"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="16"/>
@@ -1932,9 +1911,8 @@
       <c r="F80" s="17"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="16"/>
@@ -1942,8 +1920,9 @@
       <c r="F81" s="17"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="16"/>
@@ -1951,8 +1930,9 @@
       <c r="F82" s="17"/>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="16"/>
@@ -1961,7 +1941,7 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="16"/>
@@ -1970,7 +1950,7 @@
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="16"/>
@@ -1979,43 +1959,43 @@
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="29"/>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="14"/>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="29"/>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="14"/>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="14"/>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="31"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="14"/>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="31"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="16"/>
@@ -2024,7 +2004,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="16"/>
@@ -2033,7 +2013,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="16"/>
@@ -2042,7 +2022,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="16"/>
@@ -2051,7 +2031,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="16"/>
@@ -2060,15 +2040,23 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D97" s="12"/>
@@ -2205,15 +2193,25 @@
       <c r="E123" s="12"/>
       <c r="F123" s="13"/>
     </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="13"/>
+    </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2329,79 +2327,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2414,57 +2412,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2472,46 +2470,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -3091,9 +3089,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3109,38 +3107,38 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="J1" s="32" t="s">
+      <c r="C1" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3184,33 +3182,33 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>164</v>
+        <v>149</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3237,44 +3235,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3287,7 +3285,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3304,6 +3302,14 @@
         <v>45</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
@@ -3320,10 +3326,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3350,7 +3356,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>89</v>
@@ -3382,7 +3388,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="23" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>94</v>
@@ -3490,7 +3496,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>95</v>
@@ -3498,7 +3504,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>96</v>
@@ -3533,108 +3539,76 @@
       <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>104</v>
+      <c r="A30" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
+      <c r="A32" s="33" t="s">
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="21"/>
@@ -3645,136 +3619,16 @@
       <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D845FC83-D0EE-43A4-98F1-77CDF6D99442}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64A6136-3E8A-4288-8740-4F426468BAB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
     <sheet name="queries" sheetId="5" r:id="rId4"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
     <sheet name="calculates" sheetId="8" r:id="rId6"/>
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
   <si>
     <t>type</t>
   </si>
@@ -140,9 +140,6 @@
     <t>mes</t>
   </si>
   <si>
-    <t>mae</t>
-  </si>
-  <si>
     <t>region_csv</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>local_csv</t>
-  </si>
-  <si>
-    <t>local</t>
   </si>
   <si>
     <t>choice_filter</t>
@@ -334,25 +328,10 @@
     <t>id_paciente</t>
   </si>
   <si>
-    <t>r1d1</t>
-  </si>
-  <si>
-    <t>r1d2</t>
-  </si>
-  <si>
-    <t>r1d3</t>
-  </si>
-  <si>
     <t>tem_adverso</t>
   </si>
   <si>
     <t>select_multiple</t>
-  </si>
-  <si>
-    <t>ef_adveso_r1</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r1</t>
   </si>
   <si>
     <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
@@ -540,6 +519,66 @@
   </si>
   <si>
     <t>codigo_manual</t>
+  </si>
+  <si>
+    <t>tabanca</t>
+  </si>
+  <si>
+    <t>n_ronda</t>
+  </si>
+  <si>
+    <t>consentimento</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>ef_adveso</t>
+  </si>
+  <si>
+    <t>esp_ef_adverso</t>
+  </si>
+  <si>
+    <t>dx_tto</t>
+  </si>
+  <si>
+    <t>febre</t>
+  </si>
+  <si>
+    <t>tdr</t>
+  </si>
+  <si>
+    <t>TDR_positivo</t>
+  </si>
+  <si>
+    <t>tto_ACT</t>
+  </si>
+  <si>
+    <t>tranferencia</t>
+  </si>
+  <si>
+    <t>motivo</t>
+  </si>
+  <si>
+    <t>inelegivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>esp_razao</t>
+  </si>
+  <si>
+    <t>refusal_statement</t>
+  </si>
+  <si>
+    <t>survey_complete</t>
   </si>
 </sst>
 </file>
@@ -754,13 +793,13 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1182,15 +1221,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2019072601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1214,7 +1322,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1235,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -1250,31 +1358,31 @@
         <v>3</v>
       </c>
       <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>50</v>
-      </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" t="s">
-        <v>52</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -1285,7 +1393,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1314,7 +1422,7 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>25</v>
@@ -1326,30 +1434,30 @@
     </row>
     <row r="5" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1368,7 +1476,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1397,7 +1505,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="11"/>
@@ -1413,14 +1521,14 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1442,25 +1550,25 @@
         <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C18" s="12"/>
       <c r="D18" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12"/>
       <c r="E19" s="13"/>
@@ -1468,7 +1576,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="12"/>
       <c r="E20" s="13"/>
@@ -1495,21 +1603,21 @@
         <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -1518,7 +1626,7 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
@@ -1530,7 +1638,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="12"/>
       <c r="E25" s="13"/>
@@ -1546,7 +1654,7 @@
         <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.5">
@@ -1559,12 +1667,12 @@
         <v>32</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="12"/>
       <c r="E29" s="13"/>
@@ -1572,7 +1680,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.5">
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="12"/>
       <c r="E30" s="13"/>
@@ -1584,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="G31" t="s">
         <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -1601,22 +1709,22 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="G32" t="s">
         <v>38</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>39</v>
-      </c>
-      <c r="H32" t="s">
-        <v>40</v>
       </c>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="12"/>
       <c r="E33" s="13"/>
@@ -1628,16 +1736,16 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I34"/>
     </row>
@@ -1648,15 +1756,15 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="12"/>
       <c r="E36" s="13"/>
@@ -1664,7 +1772,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="12"/>
       <c r="E37" s="13"/>
@@ -1677,10 +1785,10 @@
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.5">
@@ -1690,10 +1798,10 @@
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.5">
@@ -1703,10 +1811,10 @@
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.5">
@@ -1716,10 +1824,10 @@
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.5">
@@ -1729,16 +1837,16 @@
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43"/>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="12"/>
       <c r="E43" s="13"/>
@@ -1747,7 +1855,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44"/>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="12"/>
       <c r="E44" s="13"/>
@@ -1755,27 +1863,27 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="D45" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46"/>
       <c r="D46" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.5">
@@ -1978,21 +2086,21 @@
       <c r="H87" s="14"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="31"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="32"/>
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="31"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="32"/>
       <c r="H89" s="14"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.5">
@@ -2223,7 +2331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D238"/>
@@ -2259,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -2270,12 +2378,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2286,13 +2394,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -2301,24 +2409,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -2327,79 +2435,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2412,57 +2520,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2470,46 +2578,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -3007,75 +3115,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2019072400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3089,9 +3128,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3100,115 +3139,116 @@
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="15.0625" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="10.8125" customWidth="1"/>
-    <col min="6" max="6" width="14.5625" customWidth="1"/>
-    <col min="7" max="7" width="25.1875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="50.3125" customWidth="1"/>
+    <col min="8" max="8" width="33.375" customWidth="1"/>
     <col min="10" max="10" width="22.0625" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3235,44 +3275,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3296,18 +3336,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3328,8 +3368,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3351,87 +3391,87 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="23" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -3439,23 +3479,23 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -3463,7 +3503,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3471,7 +3511,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -3479,148 +3519,204 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="21" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="33" t="s">
-        <v>5</v>
+      <c r="A32" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="21" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="21"/>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64A6136-3E8A-4288-8740-4F426468BAB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E83A8-ADA8-4037-BC58-77561C8DF4C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
   <si>
     <t>type</t>
   </si>
@@ -326,12 +326,6 @@
   </si>
   <si>
     <t>id_paciente</t>
-  </si>
-  <si>
-    <t>tem_adverso</t>
-  </si>
-  <si>
-    <t>select_multiple</t>
   </si>
   <si>
     <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
@@ -522,63 +516,6 @@
   </si>
   <si>
     <t>tabanca</t>
-  </si>
-  <si>
-    <t>n_ronda</t>
-  </si>
-  <si>
-    <t>consentimento</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>ef_adveso</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso</t>
-  </si>
-  <si>
-    <t>dx_tto</t>
-  </si>
-  <si>
-    <t>febre</t>
-  </si>
-  <si>
-    <t>tdr</t>
-  </si>
-  <si>
-    <t>TDR_positivo</t>
-  </si>
-  <si>
-    <t>tto_ACT</t>
-  </si>
-  <si>
-    <t>tranferencia</t>
-  </si>
-  <si>
-    <t>motivo</t>
-  </si>
-  <si>
-    <t>inelegivel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple </t>
-  </si>
-  <si>
-    <t>esp_razao</t>
-  </si>
-  <si>
-    <t>refusal_statement</t>
-  </si>
-  <si>
-    <t>survey_complete</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1163,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1260,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019072601</v>
+        <v>2019082600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1294,8 +1231,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
@@ -1322,7 +1259,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1434,16 +1371,16 @@
     </row>
     <row r="5" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1451,13 +1388,13 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1521,7 +1458,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
@@ -1556,14 +1493,14 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C18" s="12"/>
       <c r="D18" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.5">
@@ -1617,7 +1554,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -1626,7 +1563,7 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.5">
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
@@ -1739,13 +1676,13 @@
         <v>40</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G34" t="s">
         <v>58</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I34"/>
     </row>
@@ -1756,10 +1693,10 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.5">
@@ -1863,22 +1800,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="D45" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46"/>
       <c r="D46" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.5">
@@ -2435,79 +2372,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2520,57 +2457,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2578,46 +2515,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -3128,8 +3065,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3155,25 +3092,25 @@
         <v>56</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>136</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>55</v>
@@ -3222,33 +3159,33 @@
         <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>140</v>
       </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" t="s">
-        <v>142</v>
-      </c>
       <c r="H5" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3275,44 +3212,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3344,10 +3281,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3369,7 +3306,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3396,10 +3333,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -3407,12 +3344,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>87</v>
@@ -3428,10 +3365,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -3452,7 +3389,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
@@ -3495,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -3503,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3548,10 +3485,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -3559,164 +3496,84 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>156</v>
-      </c>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>157</v>
-      </c>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>158</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>92</v>
-      </c>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>159</v>
-      </c>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A32" s="31"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A33" s="21"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>163</v>
-      </c>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>164</v>
-      </c>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>165</v>
-      </c>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>166</v>
-      </c>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>167</v>
-      </c>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>168</v>
-      </c>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>111</v>
-      </c>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>170</v>
-      </c>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>171</v>
-      </c>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>172</v>
-      </c>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="21"/>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E83A8-ADA8-4037-BC58-77561C8DF4C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496F20D-E196-4081-B333-ACC5468FEC0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="162">
   <si>
     <t>type</t>
   </si>
@@ -472,17 +472,49 @@
     <t>[data('id_paciente')]</t>
   </si>
   <si>
-    <t>{id_paciente: data('id_paciente')}</t>
-  </si>
-  <si>
     <t>abrir_ronda</t>
   </si>
   <si>
     <t>Rondas</t>
   </si>
   <si>
+    <t>letra_sticker</t>
+  </si>
+  <si>
+    <t>Letras de códigos</t>
+  </si>
+  <si>
+    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
+  </si>
+  <si>
+    <t>Números de código</t>
+  </si>
+  <si>
+    <t>escrever os números</t>
+  </si>
+  <si>
+    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
+  </si>
+  <si>
+    <t>codigo_manual</t>
+  </si>
+  <si>
+    <t>tabanca</t>
+  </si>
+  <si>
+    <t>chefe_af</t>
+  </si>
+  <si>
+    <t>Nome de Chefe de Familia</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>Nome da mãe da criança</t>
+  </si>
+  <si>
     <t>_.chain(context)
-.uniq(function(y){return y.tabanca;})
 .map(function(place){
     return {
         data_value:place.tabanca, 
@@ -494,28 +526,25 @@
 .value()</t>
   </si>
   <si>
-    <t>letra_sticker</t>
-  </si>
-  <si>
-    <t>Letras de códigos</t>
-  </si>
-  <si>
-    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
-  </si>
-  <si>
-    <t>Números de código</t>
-  </si>
-  <si>
-    <t>escrever os números</t>
-  </si>
-  <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
-    <t>tabanca</t>
+    <t>data('Data_ou_idade')=='2'</t>
+  </si>
+  <si>
+    <t>data('mes')&lt;12</t>
+  </si>
+  <si>
+    <t>se nao souber coloca zero, se for 12 acrescenta 1 ano</t>
+  </si>
+  <si>
+    <t>se for menos de 1 ano coloca zero</t>
+  </si>
+  <si>
+    <t>{id_paciente: data('id_paciente'), vnome: data('nome')}</t>
+  </si>
+  <si>
+    <t>Comentário</t>
+  </si>
+  <si>
+    <t>comentario_2</t>
   </si>
 </sst>
 </file>
@@ -603,12 +632,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -654,7 +689,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -731,6 +766,15 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1163,7 +1207,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1197,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019082600</v>
+        <v>2019090200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1229,13 +1273,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:W130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1247,13 +1291,13 @@
     <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="12" customWidth="1"/>
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="7"/>
-    <col min="12" max="12" width="10.75" style="2"/>
+    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="59.9375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="60" style="2" customWidth="1"/>
     <col min="15" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
@@ -1368,19 +1412,22 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="5"/>
+      <c r="L4" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1391,10 +1438,10 @@
         <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -1471,13 +1518,16 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="8"/>
+      <c r="L15" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.5">
       <c r="C16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.5">
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
         <v>4</v>
@@ -1489,8 +1539,11 @@
       <c r="G17" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.5">
+      <c r="L17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.5">
       <c r="C18" s="12"/>
       <c r="D18" s="13" t="s">
         <v>97</v>
@@ -1503,7 +1556,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
@@ -1511,489 +1564,545 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D20" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
+      <c r="C22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C22" s="12"/>
-      <c r="D22" s="13" t="s">
+      <c r="L23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B23" s="2" t="s">
+      <c r="L24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="12"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C26" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
+      <c r="I28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C31" s="12"/>
-      <c r="D31" s="18" t="s">
+      <c r="C32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C33" s="12"/>
+      <c r="D33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F33" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>35</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="C32" s="12"/>
-      <c r="D32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="L33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C34" s="12"/>
       <c r="D34" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34"/>
+      <c r="L34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C36" s="12"/>
+      <c r="D36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F36" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" t="s">
         <v>58</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>92</v>
       </c>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C35" s="12"/>
-      <c r="D35" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B36" s="2" t="s">
+      <c r="I36"/>
+      <c r="L36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B37" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="12"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
-        <v>5</v>
-      </c>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="12"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C39" s="12"/>
       <c r="D39" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D40" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C44" s="12"/>
+      <c r="D44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C40" s="12"/>
-      <c r="D40" s="13" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C45" s="12"/>
+      <c r="D45" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C41" s="12"/>
-      <c r="D41" s="13" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C46" s="12"/>
+      <c r="D46" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C42" s="12"/>
-      <c r="D42" s="13" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C47" s="12"/>
+      <c r="D47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A43"/>
-      <c r="B43" s="2" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A48"/>
+      <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A44"/>
-      <c r="B44" s="2" t="s">
+      <c r="C48" s="12"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A49"/>
+      <c r="B49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="D45" s="13" t="s">
+      <c r="C49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D50" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F50" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46"/>
-      <c r="D46" s="13" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A51"/>
+      <c r="D51" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B47" s="2" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C60" s="12"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C61" s="12"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C62" s="12"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C63" s="12"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C64" s="12"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C65" s="12"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C66" s="12"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C67" s="12"/>
-      <c r="E67" s="14"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C68" s="12"/>
-      <c r="E68" s="14"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="C69" s="13"/>
-      <c r="E69" s="14"/>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C69" s="12"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C70" s="12"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C71" s="12"/>
-      <c r="E71" s="14"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C72" s="12"/>
       <c r="E72" s="14"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C73" s="12"/>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="C74" s="12"/>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C74" s="13"/>
       <c r="E74" s="14"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C75" s="12"/>
-      <c r="E75" s="14"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C76" s="12"/>
       <c r="E76" s="14"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="C77" s="13"/>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C77" s="12"/>
       <c r="E77" s="14"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C78" s="12"/>
-      <c r="E78" s="13"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C79" s="12"/>
-      <c r="E79" s="13"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="16"/>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="C80" s="12"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="12"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="K81" s="6"/>
+      <c r="F81" s="13"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="13"/>
       <c r="E82" s="14"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="K82" s="6"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
+      <c r="C83" s="12"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
+      <c r="C84" s="12"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B85" s="14"/>
@@ -2012,6 +2121,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
+      <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B87" s="14"/>
@@ -2021,23 +2131,24 @@
       <c r="F87" s="17"/>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
+      <c r="K87" s="6"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="32"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="14"/>
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="32"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="14"/>
       <c r="H89" s="14"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.5">
@@ -2068,21 +2179,21 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="14"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="35"/>
       <c r="H93" s="14"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="14"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="35"/>
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.5">
@@ -2103,82 +2214,102 @@
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.5">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="13"/>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="13"/>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="13"/>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="13"/>
@@ -2248,15 +2379,40 @@
       <c r="E125" s="12"/>
       <c r="F125" s="13"/>
     </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="13"/>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.5">
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="13"/>
+    </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -3063,24 +3219,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="15.0625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="50.3125" customWidth="1"/>
-    <col min="8" max="8" width="33.375" customWidth="1"/>
-    <col min="10" max="10" width="22.0625" customWidth="1"/>
+    <col min="7" max="7" width="50.375" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3148,7 +3304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3159,7 +3315,7 @@
         <v>59</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
@@ -3182,11 +3338,14 @@
         <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>136</v>
       </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H6" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3205,8 +3364,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.6875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3262,7 +3421,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3281,10 +3440,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -3306,7 +3465,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3336,7 +3495,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -3432,7 +3591,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -3488,7 +3647,7 @@
         <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -3496,12 +3655,20 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="21"/>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\inscricao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496F20D-E196-4081-B333-ACC5468FEC0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD1F66A-EBA7-4E39-8B51-DC306814BA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3218" yWindow="3218" windowWidth="15390" windowHeight="9532" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -26,11 +26,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="163">
   <si>
     <t>type</t>
   </si>
@@ -111,12 +106,6 @@
   </si>
   <si>
     <t>QPS</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>Escanea o codigo de barra</t>
   </si>
   <si>
     <t>nome</t>
@@ -316,18 +305,12 @@
     <t>data_inscricao</t>
   </si>
   <si>
-    <t>Data da inscrição da criança</t>
-  </si>
-  <si>
     <t>inscricao</t>
   </si>
   <si>
     <t>Inscrição</t>
   </si>
   <si>
-    <t>id_paciente</t>
-  </si>
-  <si>
     <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
   </si>
   <si>
@@ -364,9 +347,6 @@
     <t>data('Data_ou_idade')=='1'</t>
   </si>
   <si>
-    <t>numero_sticker</t>
-  </si>
-  <si>
     <t>branch_label</t>
   </si>
   <si>
@@ -457,46 +437,7 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>ronda</t>
-  </si>
-  <si>
-    <t>id_paciente=?</t>
-  </si>
-  <si>
-    <t>[data('id_paciente')]</t>
-  </si>
-  <si>
     <t>abrir_ronda</t>
-  </si>
-  <si>
-    <t>Rondas</t>
-  </si>
-  <si>
-    <t>letra_sticker</t>
-  </si>
-  <si>
-    <t>Letras de códigos</t>
-  </si>
-  <si>
-    <t>escrever só as letras em maiuscula e sem espaco ou trassos</t>
-  </si>
-  <si>
-    <t>Números de código</t>
-  </si>
-  <si>
-    <t>escrever os números</t>
-  </si>
-  <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
   </si>
   <si>
     <t>tabanca</t>
@@ -538,13 +479,70 @@
     <t>se for menos de 1 ano coloca zero</t>
   </si>
   <si>
-    <t>{id_paciente: data('id_paciente'), vnome: data('nome')}</t>
-  </si>
-  <si>
     <t>Comentário</t>
   </si>
   <si>
     <t>comentario_2</t>
+  </si>
+  <si>
+    <t>idade_mes</t>
+  </si>
+  <si>
+    <t>data('Data_ou_idade')=='1' ? adate.ageInMonths(data('dn')) : sc.getMonths(data('ano'), data('mes'))</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>calculates.idade_mes()&lt;3 || calculates.idade_mes()&gt;59</t>
+  </si>
+  <si>
+    <t>calculates.exclude()</t>
+  </si>
+  <si>
+    <t>exclusao</t>
+  </si>
+  <si>
+    <t>!calculates.exclude()</t>
+  </si>
+  <si>
+    <t>data('ano')&lt;5</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>hoje</t>
+  </si>
+  <si>
+    <t>hoje_display</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.hoje())</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>Data da inscrição da criança: {{calculates.hoje_display}}</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>texto_display</t>
+  </si>
+  <si>
+    <t>calculates.idade_mes()&lt;3 ? ("Menor que 3 meses") : calculates.idade_mes()&gt;59 ? ("Maior de 59 meses") : ("")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crianca não pode entrar no estudo por ter  {{calculates.idade_mes}} meses que é {{calculates.texto_display}} </t>
   </si>
 </sst>
 </file>
@@ -689,7 +687,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -717,9 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,9 +755,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,6 +767,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1207,7 +1202,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1233,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -1241,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019090200</v>
+        <v>2020081300</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1249,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -1273,13 +1268,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W130"/>
+  <dimension ref="A1:Y127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1287,9 +1282,9 @@
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="12" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="11" customWidth="1"/>
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
@@ -1298,12 +1293,13 @@
     <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
     <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="15" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1311,20 +1307,20 @@
       <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>41</v>
+      <c r="H1" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -1339,1080 +1335,1077 @@
         <v>3</v>
       </c>
       <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>48</v>
       </c>
-      <c r="T1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="10" t="s">
+    <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="D11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="W11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="G12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="C13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="G14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:19" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D17" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="2" t="b">
+      <c r="F20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="31" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O23">
+        <v>2014</v>
+      </c>
+      <c r="P23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C25" s="11"/>
+      <c r="D25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B14" s="2" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C26" s="11"/>
+      <c r="D26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="C16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="I26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="2"/>
+      <c r="R30"/>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="2:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D20" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="C21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="F31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="2"/>
+      <c r="R32"/>
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="2"/>
+      <c r="R33"/>
+      <c r="S33"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C34" s="11"/>
+      <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="C24" s="12"/>
-      <c r="D24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="C28" s="12"/>
-      <c r="D28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C29" s="12"/>
-      <c r="D29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
+      <c r="F34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.5">
-      <c r="B32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C33" s="12"/>
-      <c r="D33" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G34" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="L33" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C34" s="12"/>
-      <c r="D34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s">
-        <v>39</v>
-      </c>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="L34" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C36" s="12"/>
-      <c r="D36" s="18" t="s">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C35" s="11"/>
+      <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35"/>
+      <c r="L35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C37" s="11"/>
+      <c r="D37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37"/>
+      <c r="L37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C40" s="11"/>
+      <c r="D40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" s="30" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="D41" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="B43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36"/>
-      <c r="L36" s="2" t="b">
+      <c r="G44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C39" s="12"/>
-      <c r="D39" s="13" t="s">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C45" s="11"/>
+      <c r="D45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L39" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="D40" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="K40" s="34"/>
-      <c r="L40" s="32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C46" s="11"/>
+      <c r="D46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C44" s="12"/>
-      <c r="D44" s="13" t="s">
+      <c r="G46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C47" s="11"/>
+      <c r="D47" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C45" s="12"/>
-      <c r="D45" s="13" t="s">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C48" s="11"/>
+      <c r="D48" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C46" s="12"/>
-      <c r="D46" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C47" s="12"/>
-      <c r="D47" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A48"/>
-      <c r="B48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49"/>
       <c r="B49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D50" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>140</v>
+      <c r="D50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A51"/>
-      <c r="D51" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B52" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D53" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>160</v>
-      </c>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="C61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+      <c r="C62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="C63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="C64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
+      <c r="C65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
+      <c r="C66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="C67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
+      <c r="C68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C69" s="12"/>
+      <c r="C69" s="11"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="F69" s="12"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C70" s="12"/>
+      <c r="C70" s="11"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C71" s="12"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C72" s="12"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="13"/>
+      <c r="C72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C73" s="12"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="13"/>
+      <c r="C73" s="11"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="13"/>
+      <c r="C74" s="11"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C75" s="12"/>
+      <c r="C75" s="11"/>
       <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C76" s="12"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="13"/>
+      <c r="C76" s="11"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C77" s="12"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="13"/>
+      <c r="C77" s="11"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C78" s="12"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="13"/>
+      <c r="C78" s="11"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C79" s="12"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C80" s="12"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="13"/>
+      <c r="C80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C81" s="12"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="13"/>
+      <c r="C81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B82" s="13"/>
       <c r="C82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="13"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="K83" s="6"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="C84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="15"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="K84" s="6"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="K86" s="6"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="K87" s="6"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="13"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="14"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="14"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="13"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="13"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="13"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="12"/>
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="12"/>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12"/>
     </row>
     <row r="123" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="13"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
     </row>
     <row r="124" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="13"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="13"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="12"/>
     </row>
     <row r="126" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="13"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="12"/>
     </row>
     <row r="127" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-    </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-    </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="13"/>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="13"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2429,7 +2422,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2454,46 +2447,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -2502,24 +2495,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -2528,79 +2521,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2613,57 +2606,57 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2">
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -2671,46 +2664,46 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -3219,11 +3212,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3240,112 +3233,86 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>54</v>
+      <c r="J1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H6" s="29"/>
+      <c r="H5" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3369,46 +3336,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>96</v>
+      <c r="C1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3418,10 +3385,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3432,27 +3399,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3462,10 +3453,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3475,131 +3466,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="23" t="s">
-        <v>97</v>
+      <c r="A7" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="18" t="s">
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
+      <c r="B13" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>99</v>
+      <c r="B16" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3607,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -3615,140 +3606,116 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>63</v>
+      <c r="A19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B4ED6-AA8E-4BD9-8E77-28B0641A1873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35ED09-0E0D-4A1F-A210-0571D03932A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1231,18 +1231,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1261,15 +1261,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2020081300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2020092600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1300,14 +1300,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1327,7 +1327,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="13"/>
@@ -1414,7 +1414,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="13"/>
@@ -1424,7 +1424,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
@@ -1445,27 +1445,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="11"/>
@@ -1477,7 +1477,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="11"/>
@@ -1489,7 +1489,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D13" s="2" t="s">
         <v>160</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="11" t="s">
@@ -1542,12 +1542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C16" s="12"/>
       <c r="D16" s="13" t="s">
         <v>4</v>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
         <v>94</v>
@@ -1576,7 +1576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D19" s="32" t="s">
         <v>4</v>
       </c>
@@ -1602,12 +1602,12 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C22" s="12"/>
       <c r="D22" s="13" t="s">
         <v>10</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C23" s="12"/>
       <c r="D23" s="13" t="s">
         <v>10</v>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
         <v>77</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
         <v>106</v>
@@ -1684,7 +1684,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
         <v>5</v>
@@ -1714,7 +1714,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
         <v>5</v>
@@ -1736,7 +1736,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="2:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
         <v>83</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.5">
       <c r="D35" s="2"/>
       <c r="F35" s="2"/>
       <c r="J35" s="7"/>
@@ -1804,7 +1804,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C36" s="12"/>
       <c r="D36" s="18" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C37" s="12"/>
       <c r="D37" s="18" t="s">
         <v>10</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C39" s="12"/>
       <c r="D39" s="18" t="s">
         <v>10</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C42" s="12"/>
       <c r="D42" s="13" t="s">
         <v>5</v>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D43" s="32" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.5">
       <c r="B45" s="2" t="s">
         <v>79</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
         <v>5</v>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
         <v>5</v>
@@ -1971,7 +1971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.5">
       <c r="C48" s="12"/>
       <c r="D48" s="13" t="s">
         <v>5</v>
@@ -1984,7 +1984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C49" s="12"/>
       <c r="D49" s="13" t="s">
         <v>5</v>
@@ -1997,7 +1997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C50" s="12"/>
       <c r="D50" s="13" t="s">
         <v>5</v>
@@ -2010,7 +2010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51"/>
       <c r="B51" s="2" t="s">
         <v>82</v>
@@ -2019,7 +2019,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
@@ -2028,7 +2028,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D53" s="13" t="s">
         <v>102</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54"/>
       <c r="D54" s="13" t="s">
         <v>131</v>
@@ -2048,12 +2048,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D56" s="13" t="s">
         <v>4</v>
       </c>
@@ -2064,132 +2064,132 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C63" s="12"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C65" s="12"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C67" s="12"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C68" s="12"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C69" s="12"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C70" s="12"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C71" s="12"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C72" s="12"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C73" s="12"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C74" s="12"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C75" s="12"/>
       <c r="E75" s="14"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C76" s="12"/>
       <c r="E76" s="14"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C77" s="13"/>
       <c r="E77" s="14"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C78" s="12"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C79" s="12"/>
       <c r="E79" s="14"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.5">
       <c r="C80" s="12"/>
       <c r="E80" s="14"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C81" s="12"/>
       <c r="E81" s="14"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C82" s="12"/>
       <c r="E82" s="14"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C83" s="12"/>
       <c r="E83" s="14"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C84" s="12"/>
       <c r="E84" s="14"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C85" s="13"/>
       <c r="E85" s="14"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C86" s="12"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.5">
       <c r="C87" s="12"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="16"/>
@@ -2198,7 +2198,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="16"/>
@@ -2208,7 +2208,7 @@
       <c r="H89" s="14"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="16"/>
@@ -2218,7 +2218,7 @@
       <c r="H90" s="14"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="16"/>
@@ -2227,7 +2227,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="16"/>
@@ -2236,7 +2236,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="16"/>
@@ -2245,7 +2245,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="16"/>
@@ -2254,7 +2254,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="16"/>
@@ -2263,7 +2263,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
       <c r="D96" s="36"/>
@@ -2272,7 +2272,7 @@
       <c r="G96" s="35"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B97" s="35"/>
       <c r="C97" s="35"/>
       <c r="D97" s="36"/>
@@ -2281,7 +2281,7 @@
       <c r="G97" s="35"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="16"/>
@@ -2290,7 +2290,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="16"/>
@@ -2299,7 +2299,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="16"/>
@@ -2308,7 +2308,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="16"/>
@@ -2317,7 +2317,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="16"/>
@@ -2326,7 +2326,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="16"/>
@@ -2335,7 +2335,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="16"/>
@@ -2344,147 +2344,147 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="13"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="13"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="13"/>
@@ -2518,7 +2518,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2526,7 +2526,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -2581,11 +2581,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,11 +2607,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -2688,15 +2688,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -2751,10 +2751,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2798,495 +2798,495 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -3311,7 +3311,7 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3325,7 +3325,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H6" s="28"/>
     </row>
   </sheetData>
@@ -3447,14 +3447,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
         <v>91</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -3509,13 +3509,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>169</v>
       </c>
@@ -3577,13 +3577,13 @@
       <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>160</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
         <v>94</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -3743,11 +3743,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -3763,83 +3763,83 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="30"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="21"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
     </row>

--- a/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
+++ b/app/config/tables/QPS/forms/inscricao/inscricao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\QPS\forms\inscricao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35ED09-0E0D-4A1F-A210-0571D03932A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B4ED6-AA8E-4BD9-8E77-28B0641A1873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1231,18 +1231,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1261,15 +1261,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2020092600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2020081300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1300,14 +1300,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1327,7 +1327,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="13"/>
@@ -1414,7 +1414,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="13"/>
@@ -1424,7 +1424,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="s">
@@ -1445,27 +1445,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="11"/>
@@ -1477,7 +1477,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="11"/>
@@ -1489,7 +1489,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>160</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="11" t="s">
@@ -1542,12 +1542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="12"/>
       <c r="D16" s="13" t="s">
         <v>4</v>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
         <v>94</v>
@@ -1576,7 +1576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="32" t="s">
         <v>4</v>
       </c>
@@ -1602,12 +1602,12 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
       <c r="D22" s="13" t="s">
         <v>10</v>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="D23" s="13" t="s">
         <v>10</v>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>77</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
         <v>106</v>
@@ -1684,7 +1684,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
         <v>5</v>
@@ -1714,7 +1714,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
         <v>5</v>
@@ -1736,7 +1736,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="2:19" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>102</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>83</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
       <c r="F35" s="2"/>
       <c r="J35" s="7"/>
@@ -1804,7 +1804,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C36" s="12"/>
       <c r="D36" s="18" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C37" s="12"/>
       <c r="D37" s="18" t="s">
         <v>10</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="D39" s="18" t="s">
         <v>10</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C42" s="12"/>
       <c r="D42" s="13" t="s">
         <v>5</v>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="32" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="O43"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>79</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
         <v>5</v>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
         <v>5</v>
@@ -1971,7 +1971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C48" s="12"/>
       <c r="D48" s="13" t="s">
         <v>5</v>
@@ -1984,7 +1984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" s="12"/>
       <c r="D49" s="13" t="s">
         <v>5</v>
@@ -1997,7 +1997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" s="12"/>
       <c r="D50" s="13" t="s">
         <v>5</v>
@@ -2010,7 +2010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51" s="2" t="s">
         <v>82</v>
@@ -2019,7 +2019,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52" s="2" t="s">
         <v>79</v>
@@ -2028,7 +2028,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D53" s="13" t="s">
         <v>102</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="D54" s="13" t="s">
         <v>131</v>
@@ -2048,12 +2048,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="13" t="s">
         <v>4</v>
       </c>
@@ -2064,132 +2064,132 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C63" s="12"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="12"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="12"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="12"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="12"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="12"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="E75" s="14"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="E76" s="14"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="13"/>
       <c r="E77" s="14"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="12"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="12"/>
       <c r="E79" s="14"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.5">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="12"/>
       <c r="E80" s="14"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C81" s="12"/>
       <c r="E81" s="14"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C82" s="12"/>
       <c r="E82" s="14"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C83" s="12"/>
       <c r="E83" s="14"/>
       <c r="F83" s="13"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C84" s="12"/>
       <c r="E84" s="14"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C85" s="13"/>
       <c r="E85" s="14"/>
       <c r="F85" s="13"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C86" s="12"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="16"/>
@@ -2198,7 +2198,7 @@
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="16"/>
@@ -2208,7 +2208,7 @@
       <c r="H89" s="14"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="16"/>
@@ -2218,7 +2218,7 @@
       <c r="H90" s="14"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="16"/>
@@ -2227,7 +2227,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="16"/>
@@ -2236,7 +2236,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="16"/>
@@ -2245,7 +2245,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="16"/>
@@ -2254,7 +2254,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="16"/>
@@ -2263,7 +2263,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
       <c r="D96" s="36"/>
@@ -2272,7 +2272,7 @@
       <c r="G96" s="35"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="35"/>
       <c r="C97" s="35"/>
       <c r="D97" s="36"/>
@@ -2281,7 +2281,7 @@
       <c r="G97" s="35"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="16"/>
@@ -2290,7 +2290,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="16"/>
@@ -2299,7 +2299,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="16"/>
@@ -2308,7 +2308,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="16"/>
@@ -2317,7 +2317,7 @@
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="16"/>
@@ -2326,7 +2326,7 @@
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="16"/>
@@ -2335,7 +2335,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="16"/>
@@ -2344,147 +2344,147 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="13"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="13"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="13"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="13"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="13"/>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="13"/>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="13"/>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="13"/>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="13"/>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="13"/>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="13"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="13"/>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="13"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="13"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="13"/>
@@ -2518,7 +2518,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2526,7 +2526,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -2581,11 +2581,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,11 +2607,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -2688,15 +2688,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
@@ -2751,10 +2751,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2798,495 +2798,495 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -3311,7 +3311,7 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3325,7 +3325,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H6" s="28"/>
     </row>
   </sheetData>
@@ -3447,14 +3447,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>91</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -3509,13 +3509,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>169</v>
       </c>
@@ -3577,13 +3577,13 @@
       <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>160</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>94</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>102</v>
       </c>
@@ -3743,11 +3743,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -3763,83 +3763,83 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
     </row>
